--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>124093.7279161108</v>
+        <v>21884896.6242542</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>124093.7279161108</v>
+        <v>21884896.6242542</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83865.52039334693</v>
+        <v>10787504.18549381</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>88273.88276208458</v>
+        <v>11259252.59047659</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1601789191.357268</v>
+        <v>53146643.73004582</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12605.2987447827</v>
+        <v>1231539.087901315</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24547.2711989723</v>
+        <v>2380975.569942542</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36566.25239628978</v>
+        <v>3530412.051983768</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50774.10272344076</v>
+        <v>4344441.317344543</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63626.21964977591</v>
+        <v>5410672.385870178</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76073.6974506065</v>
+        <v>6498648.277032943</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88537.28747456441</v>
+        <v>7584152.996366322</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101057.7791675501</v>
+        <v>8669657.715699703</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115248.6884946373</v>
+        <v>9498298.720106317</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>127448.9263980986</v>
+        <v>10677902.35997242</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>139304.5549353917</v>
+        <v>11840828.68765645</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>151212.3172360555</v>
+        <v>13003383.10998462</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>163155.2461606525</v>
+        <v>14165937.5323128</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>176637.5300746133</v>
+        <v>15081418.04665843</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>193077.6610444542</v>
+        <v>15310968.93149588</v>
       </c>
     </row>
   </sheetData>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
